--- a/VersionRecords/Version 5.2.6 170112/版本Bug和特性计划及评审表v5.2.6_架构组.xlsx
+++ b/VersionRecords/Version 5.2.6 170112/版本Bug和特性计划及评审表v5.2.6_架构组.xlsx
@@ -24,7 +24,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
   <si>
     <t>No</t>
   </si>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>New Features</t>
-  </si>
-  <si>
-    <t>能</t>
   </si>
   <si>
     <t xml:space="preserve">日志监控，
@@ -294,10 +291,7 @@
   <si>
     <t>宋伟</t>
     <rPh sb="0" eb="1">
-      <t>w'm'h</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>w'l'g</t>
+      <t>w'm'hw'l'g</t>
     </rPh>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -320,6 +314,24 @@
   </si>
   <si>
     <t>测试反馈，无测试资源，需要在预发布环境测试</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构组</t>
+  </si>
+  <si>
+    <t>李敖</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1089,6 +1101,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1115,9 +1130,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="12" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1518,7 +1530,7 @@
   <dimension ref="A1:W170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1627,13 +1639,13 @@
         <v>70</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="79" t="s">
         <v>71</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" s="79" t="s">
         <v>68</v>
@@ -1649,28 +1661,28 @@
       </c>
       <c r="K2" s="79"/>
       <c r="L2" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="N2" s="47" t="s">
         <v>76</v>
-      </c>
-      <c r="N2" s="47" t="s">
-        <v>77</v>
       </c>
       <c r="O2" s="81"/>
       <c r="P2" s="80">
         <v>42746</v>
       </c>
       <c r="Q2" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="R2" s="94" t="s">
-        <v>78</v>
+        <v>82</v>
+      </c>
+      <c r="R2" s="85" t="s">
+        <v>77</v>
       </c>
       <c r="T2" s="82"/>
       <c r="U2" s="83"/>
       <c r="V2" s="53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W2" s="54"/>
     </row>
@@ -1687,15 +1699,29 @@
       <c r="J3" s="80"/>
       <c r="K3" s="79"/>
       <c r="L3" s="47"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="47"/>
+      <c r="M3" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" s="80">
+        <v>42746</v>
+      </c>
+      <c r="Q3" s="47" t="s">
+        <v>82</v>
+      </c>
       <c r="R3" s="77"/>
-      <c r="S3" s="82"/>
+      <c r="S3" s="77">
+        <v>7027</v>
+      </c>
       <c r="T3" s="82"/>
-      <c r="U3" s="83"/>
+      <c r="U3" s="55" t="s">
+        <v>83</v>
+      </c>
       <c r="V3" s="53"/>
       <c r="W3" s="84"/>
     </row>
@@ -5608,9 +5634,10 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" display="http://192.168.60.204/browse/DV-2093"/>
+    <hyperlink ref="S3" r:id="rId2" display="7027"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5785,19 +5812,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -5835,8 +5862,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="87"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5848,8 +5875,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="89"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5861,8 +5888,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5874,8 +5901,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="89"/>
-      <c r="B6" s="89"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="90"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5887,8 +5914,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="89"/>
-      <c r="B7" s="89"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5900,8 +5927,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="90"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5913,8 +5940,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="89"/>
-      <c r="B9" s="89"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5926,8 +5953,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="88"/>
-      <c r="B10" s="88"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5988,36 +6015,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="93"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6302,36 +6329,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="93"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6616,36 +6643,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="93"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6932,36 +6959,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="93"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
